--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E74BC0-6197-D646-8ADA-DB1D4666AF9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D1ED35-7C81-B541-9763-5CC06EF10E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="460" windowWidth="18520" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7540" yWindow="460" windowWidth="21260" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1399,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,12 +15,23 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -71,6 +82,9 @@
     </r>
   </si>
   <si>
+    <t>15, 34</t>
+  </si>
+  <si>
     <t>Since the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
 • Getting poor care and education
 • Being mistreated by adults
@@ -81,6 +95,9 @@
 • Having fewer choices in life
 • Being excluded from events or groups
 • Being treated unfairly by other children</t>
+  </si>
+  <si>
+    <t>15. 34</t>
   </si>
   <si>
     <t>Please indicate whether you have experienced any of the following prior to the coronavirus (COVID-19) pandemic
@@ -156,15 +173,12 @@
     <t>Since the coronavirus (COVID-19) pandemic,
 •Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
-  <si>
-    <t>15</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1399,21 +1413,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="71.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="28.875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="204" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1444,12 +1458,12 @@
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="204" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1461,92 +1475,92 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="372" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="372" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="7" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="372" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="170" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -63,7 +63,7 @@
     <t>• Never 
 • Rarely 
 • Some of the time
-• Most of the time</t>
+• Most of the time                               • NA</t>
   </si>
   <si>
     <t>Modified by RAPID Team and RISER Team 
@@ -82,7 +82,7 @@
     </r>
   </si>
   <si>
-    <t>15, 34</t>
+    <t>15, 34, 38</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -97,7 +97,7 @@
 • Being treated unfairly by other children</t>
   </si>
   <si>
-    <t>15. 34</t>
+    <t>15. 34, 38</t>
   </si>
   <si>
     <t>Please indicate whether you have experienced any of the following prior to the coronavirus (COVID-19) pandemic
@@ -116,7 +116,7 @@
   </si>
   <si>
     <t>•  Yes
-•  No</t>
+•  No                                                       • NA</t>
   </si>
   <si>
     <t>Modified by RAPID Team and RISER Team 
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -82,7 +82,7 @@
     </r>
   </si>
   <si>
-    <t>15, 34, 38</t>
+    <t>15, 34, 38. 42</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -97,7 +97,7 @@
 • Being treated unfairly by other children</t>
   </si>
   <si>
-    <t>15. 34, 38</t>
+    <t>15. 34, 38, 42</t>
   </si>
   <si>
     <t>Please indicate whether you have experienced any of the following prior to the coronavirus (COVID-19) pandemic
@@ -133,6 +133,9 @@
       </rPr>
       <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC2643465/</t>
     </r>
+  </si>
+  <si>
+    <t>15, 34, 38, 42</t>
   </si>
   <si>
     <t>Please indicate whether you have experienced any of the following since the coronavirus (COVID-19) pandemic
@@ -1413,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1492,12 +1495,12 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="372" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -1509,41 +1512,41 @@
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="170.1" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="170.1" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -82,7 +82,7 @@
     </r>
   </si>
   <si>
-    <t>15, 34, 38. 42</t>
+    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -95,9 +95,6 @@
 • Having fewer choices in life
 • Being excluded from events or groups
 • Being treated unfairly by other children</t>
-  </si>
-  <si>
-    <t>15. 34, 38, 42</t>
   </si>
   <si>
     <t>Please indicate whether you have experienced any of the following prior to the coronavirus (COVID-19) pandemic
@@ -135,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>15, 34, 38, 42</t>
-  </si>
-  <si>
     <t>Please indicate whether you have experienced any of the following since the coronavirus (COVID-19) pandemic
 • Did you ever receive service from someone such as a plumber or car mechanic that was worse than what other people get because of your race or ethnicity?
 • Were you ever denied service because of your race or ethnicity
@@ -154,7 +148,7 @@
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,
-•Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
+•Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                                    •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
   <si>
     <t>Modified by RAPID Team and RISER Team 
@@ -174,7 +168,7 @@
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic,
-•Did you talk to your children about challenges they may face because of their race or ethnicity?                                                                                                                               •Did you talk to your children about advantages they may face because of their race or ethnicity?</t>
+• Have you talked to your children about challenges they may face because of their race or ethnicity?                                                                                                                                      • Have you talked to your children about advantages they may face because of their race or ethnicity?</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1464,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="204" customHeight="1">
+    <row r="3" spans="1:5" ht="189">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1478,75 +1472,75 @@
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="346.5">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="372" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" ht="346.5">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="157.5">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="372" customHeight="1">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:5" ht="157.5">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="170.1" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Question</t>
   </si>
@@ -46,6 +46,16 @@
   </si>
   <si>
     <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Do you have a child under the age of 6?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -82,7 +92,7 @@
     </r>
   </si>
   <si>
-    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
+    <t>06/02/2021-06/07/2021 10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 01/31/2022-02/07/2022   46, 48</t>
   </si>
   <si>
     <t>Since the coronavirus (COVID-19) pandemic, for the following questions, please indicate how often you were concerned about the following regarding your child(ren) between the ages of 0-5.
@@ -236,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -247,6 +257,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1441,89 +1454,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="204" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="31.5">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="204" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="189">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5" ht="189">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="346.5">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="346.5">
       <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="157.5">
+    <row r="6" spans="1:5" ht="346.5">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="157.5">
@@ -1531,24 +1540,34 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+    <row r="8" spans="1:5" ht="157.5">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
@@ -1564,14 +1583,21 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
+    <row r="11" spans="1:5" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjEf+2+QcZ/qjx4rubl5T3Ijvnlgg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhC8Ye9jS4WMWtUFryeBj8BSegunQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -198,7 +198,7 @@
     </r>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -198,7 +198,7 @@
     </r>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhC8Ye9jS4WMWtUFryeBj8BSegunQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vGeRjOF+UMx1Xo8alCedKbXD2NlyoIiOwQDmjAbXAQc="/>
     </ext>
   </extLst>
 </workbook>
@@ -198,7 +198,7 @@
     </r>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 05/03/2023-05/10/2023</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -198,7 +198,7 @@
     </r>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 05/03/2023-05/10/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,

--- a/_site/Data/RISERCC.xlsx
+++ b/_site/Data/RISERCC.xlsx
@@ -198,7 +198,7 @@
     </r>
   </si>
   <si>
-    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023</t>
+    <t>11/09/2022-11/16/2022 12/06/2022-12/13/2022 01/11/2023-01/18/2023 02/16/2023-02/23/2023 03/09/2023-03/16/2023 05/03/2023-05/10/2023 07/05/2023-07/12/2023 09/06/2023-09/13/2023</t>
   </si>
   <si>
     <t>Prior to the coronavirus (COVID-19) pandemic,
